--- a/QA/Test Case_ADS.xlsx
+++ b/QA/Test Case_ADS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="420" windowWidth="18855" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="420" windowWidth="18855" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
   <si>
     <t>Req / Ticket #</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Project Manager:</t>
   </si>
   <si>
-    <t>Satya Govindu</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>1 week</t>
-  </si>
-  <si>
-    <t>Prashanth</t>
   </si>
   <si>
     <t>Srikanth</t>
@@ -499,6 +493,9 @@
   </si>
   <si>
     <t>Executed the Test cases</t>
+  </si>
+  <si>
+    <t>Jamie</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1071,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1087,27 +1102,21 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1130,18 +1139,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,170 +1528,170 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="71" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="67" t="s">
+      <c r="F15" s="64"/>
+      <c r="G15" s="71">
+        <v>1</v>
+      </c>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="65">
-        <v>1</v>
-      </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="65">
-        <v>1.2</v>
-      </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
-      <c r="E19" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="62"/>
+      <c r="E19" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="64"/>
       <c r="G19" s="30" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -1702,18 +1699,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B4:K6"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="E19:F19"/>
@@ -1723,6 +1708,18 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:J17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B4:K6"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1733,7 +1730,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1744,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1755,30 +1752,30 @@
     </row>
     <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1789,10 +1786,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,10 +1800,10 @@
         <v>1.2</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1855,50 +1854,50 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="80"/>
+      <c r="J2" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="74"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="37" t="s">
         <v>9</v>
@@ -1906,28 +1905,28 @@
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
@@ -1937,21 +1936,21 @@
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+        <v>56</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
@@ -1961,53 +1960,53 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" ht="378" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>61</v>
+      <c r="A6" s="73" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="84"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
@@ -2017,26 +2016,26 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" s="13" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
-        <v>65</v>
+      <c r="A8" s="73" t="s">
+        <v>63</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
@@ -2046,20 +2045,20 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="84"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
@@ -2070,25 +2069,25 @@
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="E10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
@@ -2099,25 +2098,25 @@
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="C11" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
@@ -2128,25 +2127,25 @@
     </row>
     <row r="12" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="2"/>
@@ -2225,7 +2224,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>13</v>
@@ -2247,7 +2246,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>14</v>
@@ -2333,22 +2332,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="B16:C23">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="notEqual">
@@ -2386,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2403,7 +2402,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -2414,25 +2413,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="F2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2440,20 +2439,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="88">
         <v>2014</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,15 +2460,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="88"/>
       <c r="F4" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="90"/>
     </row>
@@ -2478,17 +2477,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="88"/>
       <c r="F5" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="90"/>
     </row>
@@ -2496,31 +2495,31 @@
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="88"/>
       <c r="F6" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="90"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>110</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>112</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="90"/>
     </row>
@@ -2528,14 +2527,14 @@
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="88"/>
       <c r="F8" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="90"/>
     </row>
@@ -2543,14 +2542,14 @@
       <c r="A9" s="50"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" s="90"/>
     </row>
@@ -2558,14 +2557,14 @@
       <c r="A10" s="50"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="90"/>
     </row>
@@ -2573,14 +2572,14 @@
       <c r="A11" s="50"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="90"/>
     </row>
@@ -2588,14 +2587,14 @@
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="88"/>
       <c r="F12" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="90"/>
     </row>
@@ -2603,14 +2602,14 @@
       <c r="A13" s="50"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" s="90"/>
     </row>
@@ -2618,14 +2617,14 @@
       <c r="A14" s="50"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="88"/>
       <c r="F14" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="90"/>
     </row>
@@ -2634,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -2646,14 +2645,14 @@
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="90"/>
     </row>
@@ -2661,14 +2660,14 @@
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" s="88"/>
       <c r="F17" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G17" s="90"/>
     </row>
@@ -2676,14 +2675,14 @@
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E18" s="88"/>
       <c r="F18" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" s="90"/>
     </row>
@@ -2691,14 +2690,14 @@
       <c r="A19" s="50"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E19" s="88"/>
       <c r="F19" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G19" s="90"/>
     </row>
@@ -2706,14 +2705,14 @@
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="88"/>
       <c r="F20" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" s="90"/>
     </row>
@@ -2721,14 +2720,14 @@
       <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="88"/>
       <c r="F21" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G21" s="90"/>
     </row>
@@ -2736,14 +2735,14 @@
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="88"/>
       <c r="F22" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G22" s="90"/>
     </row>
@@ -2751,14 +2750,14 @@
       <c r="A23" s="50"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="88"/>
       <c r="F23" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="90"/>
     </row>
@@ -2767,17 +2766,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G24" s="90"/>
     </row>
@@ -2785,14 +2784,14 @@
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="88"/>
       <c r="F25" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" s="90"/>
     </row>
@@ -2800,14 +2799,14 @@
       <c r="A26" s="50"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E26" s="88"/>
       <c r="F26" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="90"/>
     </row>
@@ -2815,14 +2814,14 @@
       <c r="A27" s="50"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E27" s="88"/>
       <c r="F27" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" s="90"/>
     </row>
@@ -2830,14 +2829,14 @@
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28" s="88"/>
       <c r="F28" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G28" s="90"/>
     </row>
@@ -2845,14 +2844,14 @@
       <c r="A29" s="50"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E29" s="88"/>
       <c r="F29" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G29" s="90"/>
     </row>
@@ -2860,14 +2859,14 @@
       <c r="A30" s="50"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" s="88"/>
       <c r="F30" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G30" s="90"/>
     </row>
@@ -2875,14 +2874,14 @@
       <c r="A31" s="53"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E31" s="89"/>
       <c r="F31" s="54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G31" s="91"/>
     </row>
@@ -2891,14 +2890,14 @@
         <v>5</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="57"/>
@@ -2907,10 +2906,10 @@
       <c r="A33" s="58"/>
       <c r="B33" s="59"/>
       <c r="C33" s="60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="59"/>
